--- a/test_data/cai/contact_test_data.xlsx
+++ b/test_data/cai/contact_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>单位</t>
     <rPh sb="0" eb="1">
@@ -417,6 +417,44 @@
   </si>
   <si>
     <t>13232323323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <rPh sb="0" eb="1">
+      <t>ge r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄彩艳</t>
+    <rPh sb="0" eb="1">
+      <t>huang cai y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来名称重复</t>
+    <rPh sb="0" eb="1">
+      <t>wang lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能存在相同名称的个人或单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +843,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +852,7 @@
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -982,14 +1020,24 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/test_data/cai/contact_test_data.xlsx
+++ b/test_data/cai/contact_test_data.xlsx
@@ -344,13 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-    <rPh sb="0" eb="1">
-      <t>dan we</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性质为单位时－联系人输入框不显示</t>
     <rPh sb="0" eb="1">
       <t>xing zhi</t>
@@ -455,6 +448,13 @@
   </si>
   <si>
     <t>不能存在相同名称的个人或单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <rPh sb="0" eb="1">
+      <t>ge rne</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,20 +936,20 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -961,21 +961,21 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -987,16 +987,16 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,22 +1021,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
